--- a/src/test/java/Data/Data.xlsx
+++ b/src/test/java/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="1800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8055" windowHeight="1620"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>qqqqqqqqq</t>
   </si>
   <si>
-    <t>http://192.168.1.35:8083/#/</t>
+    <t>http://qa-automation-release.s3-website-us-east-1.amazonaws.com/#/</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/Data/Data.xlsx
+++ b/src/test/java/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8055" windowHeight="1620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9825" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +404,7 @@
     <hyperlink ref="C1" r:id="rId2" location="/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/test/java/Data/Data.xlsx
+++ b/src/test/java/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9825" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="2775"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,31 +23,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>CEMENT</t>
+  </si>
+  <si>
+    <t>qqqqq</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>qqqqqqqq</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>qqqqqqqqq</t>
+  </si>
+  <si>
+    <t>http://qa-automation-release.s3-website-us-east-1.amazonaws.com/#/</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>tokyo@admin</t>
-  </si>
-  <si>
-    <t>CEMENT</t>
-  </si>
-  <si>
-    <t>qqqqq</t>
-  </si>
-  <si>
-    <t>RMC</t>
-  </si>
-  <si>
-    <t>qqqqqqqq</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>qqqqqqqqq</t>
-  </si>
-  <si>
-    <t>http://qa-automation-release.s3-website-us-east-1.amazonaws.com/#/</t>
   </si>
 </sst>
 </file>
@@ -388,23 +388,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="C1" r:id="rId2" location="/"/>
+    <hyperlink ref="A1" r:id="rId3" display="sarunan159@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -423,10 +424,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,10 +435,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
